--- a/Org/Semester 3/Sprint_3.xlsx
+++ b/Org/Semester 3/Sprint_3.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Sprint Review Protocol</t>
   </si>
@@ -122,13 +122,16 @@
     <t>Summe</t>
   </si>
   <si>
-    <t>Als Benutzer möchte ich ein Startmenü sehen, damit ich auswählen kann, ob ich lernen, trainieren oder ein Quiz starten will. Als Benutzer möchte ich im Startmenü einfache Navigation haben, damit ich schnell zur gewünschten Funktion gelange. Akzeptanzkriterien: Startmenü existiert und es gibt 3 Auswahlmöglichkeiten: Open World, Lernmodus, Quizmodus; nach Auswahl wird entsprechende Szene geladen</t>
-  </si>
-  <si>
-    <t>Als Benutzer möche ich die Möglichkeit haben, zum Startmenü zu navigieren, damit ich den Spielmodus ändern kann. Akzeptanzkriterium: Ein Button für das Startmenü existiert und leitet zum Startmenü weiter.</t>
-  </si>
-  <si>
-    <t>Multiple Choice Quiz implementieren: Als Lernender möchte ich Multiple-Choice-Fragen zu Herzsegmenten beantworten können, damit ich mein Wissen testen kann. Akzeptanzkriterien: Frage und Antwortmöglichkeiten werden in VR dargestellt, Antwort(en) können mittels Handtracking ausgewählt werden</t>
+    <t>Als Benutzer möchte ich ein Startmenü sehen, damit ich auswählen kann, ob ich lernen, trainieren oder ein Quiz starten will. Als Benutzer möchte ich im Startmenü einfache Navigation haben, damit ich schnell zur gewünschten Funktion gelange. Akzeptanzkriterien: Startmenü existiert und es gibt 3 Auswahlmöglichkeiten: Segmentiertes Herz, 2D Ansicht des Herzens, Quizmodus; nach Auswahl wird entsprechende Szene geladen</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Als Benutzer möche ich die Möglichkeit haben, zum Startmenü zu navigieren, damit ich den Spielmodus ändern kann. Akzeptanzkriterium: Ein Button für das Startmenü existiert und leitet zum Startmenü weiter. Er kann per Handtracking aktiviert werden.</t>
+  </si>
+  <si>
+    <t>Multiple Choice Quiz implementieren: Als Lernender möchte ich Multiple-Choice-Fragen zu Herzsegmenten beantworten können, damit ich mein Wissen testen kann. Akzeptanzkriterien: Frage und Antwortmöglichkeiten werden in VR dargestellt, Antwort(en) können mittels Handtracking ausgewählt werden, Ausgewählte Antwort wird als richtig/falsch erkannt</t>
   </si>
 </sst>
 </file>
@@ -847,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -917,7 +920,7 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="26">
-        <v>45965.8125</v>
+        <v>45979.8125</v>
       </c>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -1053,7 +1056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="126" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1063,25 +1066,33 @@
       <c r="C16" s="10">
         <v>15</v>
       </c>
-      <c r="D16" s="10"/>
+      <c r="D16" s="10">
+        <v>12</v>
+      </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="14">
         <v>28</v>
       </c>
-      <c r="D17" s="10"/>
+      <c r="D17" s="10">
+        <v>23</v>
+      </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="13"/>
     </row>
@@ -1090,14 +1101,18 @@
         <v>3</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="10">
         <v>10</v>
       </c>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10">
+        <v>8</v>
+      </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
     </row>
@@ -1124,7 +1139,7 @@
       </c>
       <c r="D20" s="2">
         <f>SUM(D15:D19)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4">
         <f>SUM(E16:E19)</f>
